--- a/file/TGT-531-FeaturedRestaurant.xlsx
+++ b/file/TGT-531-FeaturedRestaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-Taoyuan/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B5A1A0-1EB3-9541-819D-4938317BEDF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1CC800-D4D4-5D40-9039-C4029E5EC88E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="2900" windowWidth="30560" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="23100" yWindow="8140" windowWidth="30560" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,31 @@
   </si>
   <si>
     <t>https://www.facebook.com/%E7%94%98%E6%97%A8%E8%82%A5%E6%BF%83-%E6%A1%83%E5%9C%92%E9%BE%8D%E6%BD%AD%E5%89%B5%E6%84%8F%E6%87%B7%E7%9F%B3%E6%96%99%E7%90%86-1659033371033538/</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>蔣府宴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龍潭區高原路891號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-471-6635</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30 – 14:30、17:00 – 21:00, 週一公休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGT-5301-FeaturedRestaurant-03.jpg</t>
+  </si>
+  <si>
+    <t>https://chiangfuyan.business.site/</t>
   </si>
 </sst>
 </file>
@@ -549,7 +574,7 @@
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD21"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -661,10 +686,34 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="D4" s="5"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="4"/>
+    <row r="4" spans="1:11" ht="48">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="D5" s="5"/>
